--- a/Kiki/Feedback/Kiki Deliverable Review.xlsx
+++ b/Kiki/Feedback/Kiki Deliverable Review.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="390" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24980" windowHeight="17460" tabRatio="390"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="136">
   <si>
     <t>Author</t>
   </si>
@@ -247,7 +251,7 @@
     <t>PCB Milling</t>
   </si>
   <si>
-    <t>Default Values for resistors and Capacitors are not displayed </t>
+    <t>Default Values for resistors and Capacitors are not displayed</t>
   </si>
   <si>
     <t>Done (Note: they had to be unsmashed then resmashed to show the value)</t>
@@ -340,16 +344,16 @@
     <t>Update the formatting</t>
   </si>
   <si>
-    <t>Make sure cell are big enough or use wrap text so no information is hidden and it is easy to read. </t>
-  </si>
-  <si>
-    <t>Major Signal List </t>
-  </si>
-  <si>
-    <t>Thermocouple Amplifer max volatge is incorrect. </t>
-  </si>
-  <si>
-    <t>Ready Indicator signal. </t>
+    <t>Make sure cell are big enough or use wrap text so no information is hidden and it is easy to read.</t>
+  </si>
+  <si>
+    <t>Major Signal List</t>
+  </si>
+  <si>
+    <t>Thermocouple Amplifer max volatge is incorrect.</t>
+  </si>
+  <si>
+    <t>Ready Indicator signal.</t>
   </si>
   <si>
     <t>Remove this if it is not used</t>
@@ -364,7 +368,7 @@
     <t>Pinouts</t>
   </si>
   <si>
-    <t>It is unclear if 7-seg display pins 11-14 are connection to the SPI pins are th thermocouple amplifier is </t>
+    <t>It is unclear if 7-seg display pins 11-14 are connection to the SPI pins are th thermocouple amplifier is</t>
   </si>
   <si>
     <t>Add in pinout information for the USB, DC Jack, and AC connections</t>
@@ -373,7 +377,7 @@
     <t>Exapnd cells so no information is hidden</t>
   </si>
   <si>
-    <t>Current Budget </t>
+    <t>Current Budget</t>
   </si>
   <si>
     <t>Clearly separate AC and DC currents and totals</t>
@@ -386,17 +390,84 @@
   </si>
   <si>
     <t>I think the Vf number is incorrect. Check the datasheet again and see if it has Forward Voltage information. If it does not find the generic Vf for blue LEDs</t>
+  </si>
+  <si>
+    <t>95cc164</t>
+  </si>
+  <si>
+    <t>Blue bottle dimensions are different in operational requirements and Device Characteristics (lines 7 and 19) is this information redundant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line 23 must reach maxt temp in 10hr. Is this correct? We talked about 1 hour? </t>
+  </si>
+  <si>
+    <t>Line 128 update name to Relay</t>
+  </si>
+  <si>
+    <t>Line 133 Ah that is why it takes 10hours</t>
+  </si>
+  <si>
+    <t>Test and Acceptance Criteria notes are awsome!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">110V Power In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Is not something that you make. Change the name to something that you can or buy like Terminal Block or Power Strip. </t>
+    </r>
+  </si>
+  <si>
+    <t>Behavior: How do you turn the heater off? Do you just unplug it or were you planning to have the Arduino turn off the relay? Is then make that explicit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5a43fb </t>
+  </si>
+  <si>
+    <t>See Feature_Block_Diagram V02a Comments.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The switch needs a pull up to 5V to work. You can do this with an external resistor or using the internal pull up the Arduino has. </t>
+  </si>
+  <si>
+    <t>Look at this tutorial and figure out how you want to do the design https://learn.sparkfun.com/tutorials/pull-up-resistors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5a1f56c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layout </t>
+  </si>
+  <si>
+    <t>Module out line looks good but it is best to add it to the footprint than to draw it on the layout</t>
+  </si>
+  <si>
+    <t>5a1f56c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -405,22 +476,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -435,7 +491,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -455,6 +511,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -465,7 +529,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -473,152 +537,441 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="8">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.83720930232558"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1627906976744"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.6651162790698"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="1" width="36.3302325581395"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.83720930232558"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
+      <c r="C1"/>
+      <c r="D1"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="16">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>42635</v>
       </c>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
+      <c r="C2"/>
+      <c r="D2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
+      <c r="C3"/>
+      <c r="D3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -627,7 +980,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -638,7 +991,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" ht="32">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -659,8 +1012,8 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:7" ht="45">
+      <c r="A7">
         <v>0.1</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -679,8 +1032,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>0.1</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -699,8 +1052,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9">
         <v>0.1</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -719,8 +1072,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10">
         <v>0.1</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -735,12 +1088,12 @@
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:7" ht="45">
+      <c r="A11">
         <v>0.1</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -759,8 +1112,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12">
         <v>0.1</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -779,8 +1132,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:7" ht="45">
+      <c r="A13">
         <v>0.1</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -795,10 +1148,10 @@
       <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14">
         <v>0.1</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -810,13 +1163,13 @@
       <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="0"/>
+      <c r="E14"/>
       <c r="F14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15">
         <v>0.1</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -828,13 +1181,13 @@
       <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="0"/>
+      <c r="E15"/>
       <c r="F15" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:7" ht="45">
+      <c r="A16">
         <v>0.1</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -846,13 +1199,13 @@
       <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="0"/>
+      <c r="E16"/>
       <c r="F16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:6">
+      <c r="A17">
         <v>0.1</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -871,8 +1224,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:6" ht="45">
+      <c r="A18">
         <v>0.1</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -891,8 +1244,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:6" ht="45">
+      <c r="A19">
         <v>0.1</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -904,13 +1257,13 @@
       <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="0"/>
+      <c r="E19"/>
       <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20">
         <v>0.1</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -922,11 +1275,11 @@
       <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21">
         <v>0.1</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -938,13 +1291,13 @@
       <c r="D21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="0"/>
+      <c r="E21"/>
       <c r="F21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:6" ht="75">
+      <c r="A22">
         <v>0.1</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -956,30 +1309,30 @@
       <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="0"/>
+      <c r="E22"/>
       <c r="F22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="23" spans="1:6">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" ht="45">
+      <c r="A26">
         <v>0.1</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -991,13 +1344,13 @@
       <c r="D26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="0"/>
+      <c r="E26"/>
       <c r="F26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:6" ht="75">
+      <c r="A27">
         <v>0.1</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1009,13 +1362,13 @@
       <c r="D27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="0"/>
+      <c r="E27"/>
       <c r="F27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:6" ht="75">
+      <c r="A28">
         <v>0.1</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1027,13 +1380,13 @@
       <c r="D28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="0"/>
+      <c r="E28"/>
       <c r="F28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29">
         <v>0.1</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1045,13 +1398,13 @@
       <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="0"/>
+      <c r="E29"/>
       <c r="F29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30">
         <v>0.1</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1063,13 +1416,13 @@
       <c r="D30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="0"/>
+      <c r="E30"/>
       <c r="F30" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:6" ht="45">
+      <c r="A31">
         <v>0.1</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1081,13 +1434,13 @@
       <c r="D31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="0"/>
+      <c r="E31"/>
       <c r="F31" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:6">
+      <c r="A32">
         <v>0.1</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1099,13 +1452,13 @@
       <c r="D32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="0"/>
+      <c r="E32"/>
       <c r="F32" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33">
         <v>0.1</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1117,13 +1470,13 @@
       <c r="D33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="0"/>
+      <c r="E33"/>
       <c r="F33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:6" ht="60">
+      <c r="A34">
         <v>0.1</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1135,13 +1488,13 @@
       <c r="D34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="0"/>
+      <c r="E34"/>
       <c r="F34" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:6" ht="30">
+      <c r="A35">
         <v>0.1</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1153,13 +1506,13 @@
       <c r="D35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="0"/>
+      <c r="E35"/>
       <c r="F35" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:6" ht="30">
+      <c r="A36">
         <v>0.1</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1171,13 +1524,13 @@
       <c r="D36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="0"/>
+      <c r="E36"/>
       <c r="F36" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:6" ht="30">
+      <c r="A37">
         <v>0.1</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1189,13 +1542,13 @@
       <c r="D37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="0"/>
+      <c r="E37"/>
       <c r="F37" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:6" ht="30">
+      <c r="A38">
         <v>0.1</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1207,13 +1560,13 @@
       <c r="D38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="0"/>
+      <c r="E38"/>
       <c r="F38" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:6" ht="45">
+      <c r="A39">
         <v>0.1</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1225,28 +1578,28 @@
       <c r="D39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="0"/>
+      <c r="E39"/>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="0"/>
-      <c r="E40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:6" ht="45">
+      <c r="A42">
         <v>0.2</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1258,13 +1611,13 @@
       <c r="D42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="0"/>
+      <c r="E42"/>
       <c r="F42" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:6">
+      <c r="A43">
         <v>0.2</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1276,13 +1629,13 @@
       <c r="D43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="0"/>
+      <c r="E43"/>
       <c r="F43" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:6">
+      <c r="A44">
         <v>0.2</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1294,13 +1647,13 @@
       <c r="D44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="0"/>
+      <c r="E44"/>
       <c r="F44" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:6">
+      <c r="A45">
         <v>0.2</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1312,13 +1665,13 @@
       <c r="D45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="0"/>
+      <c r="E45"/>
       <c r="F45" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:6" ht="30">
+      <c r="A46">
         <v>0.2</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1330,13 +1683,13 @@
       <c r="D46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E46" s="0"/>
+      <c r="E46"/>
       <c r="F46" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:6" ht="45">
+      <c r="A47">
         <v>0.2</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1355,8 +1708,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    <row r="48" spans="1:6" ht="30">
+      <c r="A48">
         <v>0.2</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1368,13 +1721,13 @@
       <c r="D48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="0"/>
+      <c r="E48"/>
       <c r="F48" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:6" ht="30">
+      <c r="A49">
         <v>0.2</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1393,8 +1746,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="50" spans="1:6" ht="30">
+      <c r="A50">
         <v>0.2</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1406,28 +1759,28 @@
       <c r="D50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="0"/>
+      <c r="E50"/>
       <c r="F50" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:6">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B52" s="0"/>
-      <c r="C52" s="0"/>
-      <c r="D52" s="0"/>
-      <c r="E52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:6" ht="30">
+      <c r="A53">
         <v>0.2</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1439,10 +1792,10 @@
       <c r="D53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:6" ht="30">
+      <c r="A54">
         <v>0.1</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1454,10 +1807,10 @@
       <c r="D54" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
         <v>0.1</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1469,10 +1822,10 @@
       <c r="D55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
         <v>0.1</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1484,10 +1837,10 @@
       <c r="D56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
         <v>0.1</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1499,10 +1852,10 @@
       <c r="D57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
         <v>0.1</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1514,10 +1867,10 @@
       <c r="D58" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
         <v>0.1</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1529,10 +1882,10 @@
       <c r="D59" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
         <v>0.1</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1544,10 +1897,10 @@
       <c r="D60" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:6" ht="60">
+      <c r="A61">
         <v>0.1</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1559,10 +1912,10 @@
       <c r="D61" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
         <v>0.1</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1578,8 +1931,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:6" ht="45">
+      <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -1591,10 +1944,10 @@
       <c r="D63" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="E63"/>
+    </row>
+    <row r="64" spans="1:6" ht="30">
+      <c r="A64">
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1606,10 +1959,10 @@
       <c r="D64" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1625,8 +1978,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:5" ht="30">
+      <c r="A66">
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -1638,10 +1991,10 @@
       <c r="D66" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5" ht="45">
+      <c r="A67">
         <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -1653,10 +2006,10 @@
       <c r="D67" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="1:5" ht="45">
+      <c r="A68">
         <v>2</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -1668,10 +2021,10 @@
       <c r="D68" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5" ht="30">
+      <c r="A69">
         <v>2</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -1683,10 +2036,10 @@
       <c r="D69" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -1698,10 +2051,10 @@
       <c r="D70" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -1713,10 +2066,10 @@
       <c r="D71" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -1728,10 +2081,10 @@
       <c r="D72" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="1:5" ht="60">
+      <c r="A73">
         <v>2</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -1747,16 +2100,164 @@
         <v>119</v>
       </c>
     </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="12">
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="60">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30">
+      <c r="A77" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30">
+      <c r="A78" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="60">
+      <c r="A81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="45">
+      <c r="A82" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30">
+      <c r="A83" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="60">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="30">
+      <c r="A85" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F27" r:id="rId1" display="It says “Minimum on voltage (controlled) = 3; Minimum on current (controlled) – 1.5m”  Specs: http://www.americanmicrosemi.com/catalog/SC649000.html"/>
+    <hyperlink ref="F27" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>